--- a/database/industries/palayesh/shebandar/product/yearly.xlsx
+++ b/database/industries/palayesh/shebandar/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D660B4F-5286-462D-A044-16975B3035E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF91004-A80D-4648-9B0F-A2CD1266A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>بنزین موتور</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>گوگرد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>کیلوگرم</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>نفت گاز</t>
   </si>
   <si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -623,12 +626,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,7 +641,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -650,7 +653,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -662,7 +665,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -672,7 +675,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -684,7 +687,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -696,7 +699,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -706,7 +709,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -728,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -738,7 +741,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -747,22 +750,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>3827326</v>
+        <v>4139134</v>
       </c>
       <c r="F10" s="9">
-        <v>4139134</v>
+        <v>3959241</v>
       </c>
       <c r="G10" s="9">
-        <v>3959241</v>
+        <v>4116884</v>
       </c>
       <c r="H10" s="9">
-        <v>4116884</v>
+        <v>4435717</v>
       </c>
       <c r="I10" s="9">
-        <v>4435717</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4565211</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -771,22 +774,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>218359</v>
+        <v>200971</v>
       </c>
       <c r="F11" s="11">
-        <v>200971</v>
+        <v>191494</v>
       </c>
       <c r="G11" s="11">
-        <v>191494</v>
+        <v>169518</v>
       </c>
       <c r="H11" s="11">
-        <v>169518</v>
+        <v>224821</v>
       </c>
       <c r="I11" s="11">
-        <v>224821</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>215591</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -795,22 +798,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1689046</v>
+        <v>1817075</v>
       </c>
       <c r="F12" s="9">
-        <v>1817075</v>
+        <v>1711224</v>
       </c>
       <c r="G12" s="9">
-        <v>1711224</v>
+        <v>1808620</v>
       </c>
       <c r="H12" s="9">
-        <v>1808620</v>
+        <v>1580302</v>
       </c>
       <c r="I12" s="9">
-        <v>1580302</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1807168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -819,22 +822,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>4594898</v>
+        <v>4126218</v>
       </c>
       <c r="F13" s="11">
-        <v>4126218</v>
+        <v>4070121</v>
       </c>
       <c r="G13" s="11">
-        <v>4070121</v>
+        <v>2864855</v>
       </c>
       <c r="H13" s="11">
-        <v>2864855</v>
+        <v>4568430</v>
       </c>
       <c r="I13" s="11">
-        <v>4568430</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4566367</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -843,22 +846,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>722830</v>
+        <v>805571</v>
       </c>
       <c r="F14" s="9">
-        <v>805571</v>
+        <v>778560</v>
       </c>
       <c r="G14" s="9">
-        <v>778560</v>
+        <v>794218</v>
       </c>
       <c r="H14" s="9">
-        <v>794218</v>
+        <v>493739</v>
       </c>
       <c r="I14" s="9">
-        <v>493739</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>643150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -867,70 +870,70 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>441563</v>
+        <v>424885</v>
       </c>
       <c r="F15" s="11">
-        <v>424885</v>
+        <v>324764</v>
       </c>
       <c r="G15" s="11">
-        <v>324764</v>
+        <v>295342</v>
       </c>
       <c r="H15" s="11">
-        <v>295342</v>
+        <v>330419</v>
       </c>
       <c r="I15" s="11">
-        <v>330419</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>353959</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>19</v>
+      <c r="E16" s="9">
+        <v>25851</v>
+      </c>
+      <c r="F16" s="9">
+        <v>32859</v>
+      </c>
+      <c r="G16" s="9">
+        <v>41927</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9">
-        <v>33595</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36574</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>18995</v>
-      </c>
-      <c r="F17" s="11">
-        <v>25851</v>
-      </c>
-      <c r="G17" s="11">
-        <v>32859</v>
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="H17" s="11">
-        <v>41927</v>
+        <v>33595</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -939,22 +942,22 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>5865372</v>
+        <v>5952909</v>
       </c>
       <c r="F18" s="9">
-        <v>5952909</v>
+        <v>5996545</v>
       </c>
       <c r="G18" s="9">
-        <v>5996545</v>
+        <v>5465954</v>
       </c>
       <c r="H18" s="9">
-        <v>5465954</v>
+        <v>6272911</v>
       </c>
       <c r="I18" s="9">
-        <v>6272911</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6730231</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -963,22 +966,22 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>36295</v>
+        <v>44621</v>
       </c>
       <c r="F19" s="11">
-        <v>44621</v>
+        <v>39127</v>
       </c>
       <c r="G19" s="11">
-        <v>39127</v>
+        <v>47783</v>
       </c>
       <c r="H19" s="11">
-        <v>47783</v>
+        <v>44030</v>
       </c>
       <c r="I19" s="11">
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37640</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -987,22 +990,22 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120553</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1011,22 +1014,22 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1035,22 +1038,22 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="F22" s="9">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="G22" s="9">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H22" s="9">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="I22" s="9">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1059,22 +1062,22 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1083,22 +1086,22 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1107,22 +1110,22 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>17064</v>
+        <v>50004</v>
       </c>
       <c r="F25" s="11">
-        <v>50004</v>
+        <v>22289</v>
       </c>
       <c r="G25" s="11">
-        <v>22289</v>
+        <v>99367</v>
       </c>
       <c r="H25" s="11">
-        <v>99367</v>
+        <v>48435</v>
       </c>
       <c r="I25" s="11">
-        <v>48435</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9754</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1131,22 +1134,22 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>22275</v>
+        <v>36394</v>
       </c>
       <c r="F26" s="9">
-        <v>36394</v>
+        <v>51786</v>
       </c>
       <c r="G26" s="9">
-        <v>51786</v>
+        <v>37613</v>
       </c>
       <c r="H26" s="9">
-        <v>37613</v>
+        <v>22365</v>
       </c>
       <c r="I26" s="9">
-        <v>22365</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1155,22 +1158,22 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>133965</v>
+        <v>75127</v>
       </c>
       <c r="F27" s="11">
-        <v>75127</v>
+        <v>84300</v>
       </c>
       <c r="G27" s="11">
-        <v>84300</v>
+        <v>192245</v>
       </c>
       <c r="H27" s="11">
-        <v>192245</v>
-      </c>
-      <c r="I27" s="11">
         <v>70682</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1179,44 +1182,44 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>172993</v>
-      </c>
-      <c r="F28" s="9">
         <v>295152</v>
       </c>
+      <c r="F28" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H28" s="9">
+        <v>480733</v>
       </c>
       <c r="I28" s="9">
-        <v>480733</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479296</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1225,22 +1228,22 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
@@ -1249,22 +1252,22 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1273,22 +1276,22 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F32" s="9">
+        <v>214478</v>
       </c>
       <c r="G32" s="9">
-        <v>214478</v>
-      </c>
-      <c r="H32" s="9">
         <v>287105</v>
       </c>
+      <c r="H32" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I32" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1297,44 +1300,44 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>17761309</v>
+        <v>17994057</v>
       </c>
       <c r="F34" s="13">
-        <v>17994057</v>
+        <v>17477009</v>
       </c>
       <c r="G34" s="13">
-        <v>17477009</v>
+        <v>16221682</v>
       </c>
       <c r="H34" s="13">
-        <v>16221682</v>
+        <v>18606398</v>
       </c>
       <c r="I34" s="13">
-        <v>18606398</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19574362</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1344,7 +1347,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1354,7 +1357,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1364,7 +1367,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1396,7 +1399,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
@@ -1405,22 +1408,22 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>3668792</v>
+        <v>4115925</v>
       </c>
       <c r="F40" s="9">
-        <v>4115925</v>
+        <v>3696247</v>
       </c>
       <c r="G40" s="9">
-        <v>3696247</v>
+        <v>4433008</v>
       </c>
       <c r="H40" s="9">
-        <v>4433008</v>
+        <v>4227582</v>
       </c>
       <c r="I40" s="9">
-        <v>4227582</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4807413</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>12</v>
       </c>
@@ -1429,22 +1432,22 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>222759</v>
+        <v>196178</v>
       </c>
       <c r="F41" s="11">
-        <v>196178</v>
+        <v>191952</v>
       </c>
       <c r="G41" s="11">
-        <v>191952</v>
+        <v>170908</v>
       </c>
       <c r="H41" s="11">
-        <v>170908</v>
+        <v>220505</v>
       </c>
       <c r="I41" s="11">
-        <v>220505</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>231214</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>13</v>
       </c>
@@ -1453,22 +1456,22 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>1696716</v>
+        <v>1830043</v>
       </c>
       <c r="F42" s="9">
-        <v>1830043</v>
+        <v>1694633</v>
       </c>
       <c r="G42" s="9">
-        <v>1694633</v>
+        <v>1810117</v>
       </c>
       <c r="H42" s="9">
-        <v>1810117</v>
+        <v>1582198</v>
       </c>
       <c r="I42" s="9">
-        <v>1582198</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1818599</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
@@ -1477,22 +1480,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>4618711</v>
+        <v>3659939</v>
       </c>
       <c r="F43" s="11">
-        <v>3659939</v>
+        <v>4276889</v>
       </c>
       <c r="G43" s="11">
-        <v>4276889</v>
+        <v>2981744</v>
       </c>
       <c r="H43" s="11">
-        <v>2981744</v>
+        <v>4374668</v>
       </c>
       <c r="I43" s="11">
-        <v>4374668</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4607973</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>15</v>
       </c>
@@ -1501,22 +1504,22 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>722095</v>
+        <v>706239</v>
       </c>
       <c r="F44" s="9">
-        <v>706239</v>
+        <v>822790</v>
       </c>
       <c r="G44" s="9">
-        <v>822790</v>
+        <v>779073</v>
       </c>
       <c r="H44" s="9">
-        <v>779073</v>
+        <v>549390</v>
       </c>
       <c r="I44" s="9">
-        <v>549390</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>595161</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>16</v>
       </c>
@@ -1525,70 +1528,70 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>444871</v>
+        <v>426000</v>
       </c>
       <c r="F45" s="11">
-        <v>426000</v>
+        <v>321420</v>
       </c>
       <c r="G45" s="11">
-        <v>321420</v>
+        <v>291558</v>
       </c>
       <c r="H45" s="11">
-        <v>291558</v>
+        <v>319322</v>
       </c>
       <c r="I45" s="11">
-        <v>319322</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>358816</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>19</v>
+      <c r="E46" s="9">
+        <v>21578</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="9">
-        <v>37956</v>
-      </c>
-      <c r="H46" s="9">
-        <v>38098</v>
+        <v>18</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I46" s="9">
-        <v>33496</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32705</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11">
-        <v>17368</v>
+      <c r="E47" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F47" s="11">
-        <v>21578</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>19</v>
+        <v>37956</v>
+      </c>
+      <c r="G47" s="11">
+        <v>38098</v>
+      </c>
+      <c r="H47" s="11">
+        <v>33496</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>20</v>
       </c>
@@ -1597,22 +1600,22 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>5845534</v>
+        <v>5742615</v>
       </c>
       <c r="F48" s="9">
-        <v>5742615</v>
+        <v>5949373</v>
       </c>
       <c r="G48" s="9">
-        <v>5949373</v>
+        <v>5512618</v>
       </c>
       <c r="H48" s="9">
-        <v>5512618</v>
+        <v>6195739</v>
       </c>
       <c r="I48" s="9">
-        <v>6195739</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6797681</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>38</v>
       </c>
@@ -1620,8 +1623,8 @@
         <v>39</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>19</v>
+      <c r="E49" s="11">
+        <v>0</v>
       </c>
       <c r="F49" s="11">
         <v>0</v>
@@ -1629,14 +1632,14 @@
       <c r="G49" s="11">
         <v>0</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>21</v>
       </c>
@@ -1645,22 +1648,22 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>38211</v>
+        <v>44621</v>
       </c>
       <c r="F50" s="9">
-        <v>44621</v>
+        <v>39127</v>
       </c>
       <c r="G50" s="9">
-        <v>39127</v>
+        <v>47783</v>
       </c>
       <c r="H50" s="9">
-        <v>47783</v>
+        <v>44030</v>
       </c>
       <c r="I50" s="9">
-        <v>44030</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37640</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>22</v>
       </c>
@@ -1669,22 +1672,22 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
       </c>
       <c r="I51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120553</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>23</v>
       </c>
@@ -1693,22 +1696,22 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>24</v>
       </c>
@@ -1717,22 +1720,22 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="F53" s="11">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="G53" s="11">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H53" s="11">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="I53" s="11">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>25</v>
       </c>
@@ -1741,22 +1744,22 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>26</v>
       </c>
@@ -1765,22 +1768,22 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>27</v>
       </c>
@@ -1789,22 +1792,22 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>19783</v>
+        <v>50004</v>
       </c>
       <c r="F56" s="9">
-        <v>50004</v>
+        <v>22289</v>
       </c>
       <c r="G56" s="9">
-        <v>22289</v>
+        <v>99367</v>
       </c>
       <c r="H56" s="9">
-        <v>99367</v>
+        <v>48435</v>
       </c>
       <c r="I56" s="9">
-        <v>48435</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9754</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>28</v>
       </c>
@@ -1813,22 +1816,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>25881</v>
+        <v>36394</v>
       </c>
       <c r="F57" s="11">
-        <v>36394</v>
+        <v>51786</v>
       </c>
       <c r="G57" s="11">
-        <v>51786</v>
+        <v>37613</v>
       </c>
       <c r="H57" s="11">
-        <v>37613</v>
+        <v>22365</v>
       </c>
       <c r="I57" s="11">
-        <v>22365</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>29</v>
       </c>
@@ -1837,22 +1840,22 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>310410</v>
+        <v>76652</v>
       </c>
       <c r="F58" s="9">
-        <v>76652</v>
+        <v>84299</v>
       </c>
       <c r="G58" s="9">
-        <v>84299</v>
+        <v>192281</v>
       </c>
       <c r="H58" s="9">
-        <v>192281</v>
-      </c>
-      <c r="I58" s="9">
         <v>70682</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>30</v>
       </c>
@@ -1861,29 +1864,29 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>184751</v>
+        <v>295152</v>
       </c>
       <c r="F59" s="11">
-        <v>295152</v>
+        <v>214478</v>
       </c>
       <c r="G59" s="11">
-        <v>214478</v>
+        <v>287105</v>
       </c>
       <c r="H59" s="11">
-        <v>287105</v>
+        <v>480733</v>
       </c>
       <c r="I59" s="11">
-        <v>480733</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479296</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>19</v>
+      <c r="E60" s="9">
+        <v>0</v>
       </c>
       <c r="F60" s="9">
         <v>0</v>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>32</v>
       </c>
@@ -1907,22 +1910,22 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>33</v>
       </c>
@@ -1931,22 +1934,22 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>35</v>
       </c>
@@ -1955,44 +1958,44 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>17816210</v>
+        <v>17201485</v>
       </c>
       <c r="F64" s="13">
-        <v>17201485</v>
+        <v>17403460</v>
       </c>
       <c r="G64" s="13">
-        <v>17403460</v>
+        <v>16681524</v>
       </c>
       <c r="H64" s="13">
-        <v>16681524</v>
+        <v>18169364</v>
       </c>
       <c r="I64" s="13">
-        <v>18169364</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19905673</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2002,7 +2005,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2012,7 +2015,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2022,7 +2025,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>40</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2054,7 +2057,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>10</v>
       </c>
@@ -2063,22 +2066,22 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>50167848</v>
+        <v>106204100</v>
       </c>
       <c r="F70" s="9">
-        <v>106204100</v>
+        <v>164123358</v>
       </c>
       <c r="G70" s="9">
-        <v>164123358</v>
+        <v>241825469</v>
       </c>
       <c r="H70" s="9">
-        <v>241825469</v>
+        <v>503221846</v>
       </c>
       <c r="I70" s="9">
-        <v>503221846</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>804474987</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>12</v>
       </c>
@@ -2087,22 +2090,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>3307888</v>
+        <v>6294419</v>
       </c>
       <c r="F71" s="11">
-        <v>6294419</v>
+        <v>9703765</v>
       </c>
       <c r="G71" s="11">
-        <v>9703765</v>
+        <v>9967352</v>
       </c>
       <c r="H71" s="11">
-        <v>9967352</v>
+        <v>25874570</v>
       </c>
       <c r="I71" s="11">
-        <v>25874570</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48384994</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2111,22 +2114,22 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>15152724</v>
+        <v>37547319</v>
       </c>
       <c r="F72" s="9">
-        <v>37547319</v>
+        <v>47168989</v>
       </c>
       <c r="G72" s="9">
-        <v>47168989</v>
+        <v>72363467</v>
       </c>
       <c r="H72" s="9">
-        <v>72363467</v>
+        <v>126906806</v>
       </c>
       <c r="I72" s="9">
-        <v>126906806</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>188545231</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>14</v>
       </c>
@@ -2135,22 +2138,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>48287441</v>
+        <v>84894397</v>
       </c>
       <c r="F73" s="11">
-        <v>84894397</v>
+        <v>139627537</v>
       </c>
       <c r="G73" s="11">
-        <v>139627537</v>
+        <v>152008857</v>
       </c>
       <c r="H73" s="11">
-        <v>152008857</v>
+        <v>404204726</v>
       </c>
       <c r="I73" s="11">
-        <v>404204726</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>460413471</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>15</v>
       </c>
@@ -2159,22 +2162,22 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>11294674</v>
+        <v>25675794</v>
       </c>
       <c r="F74" s="9">
-        <v>25675794</v>
+        <v>40787985</v>
       </c>
       <c r="G74" s="9">
-        <v>40787985</v>
+        <v>41448466</v>
       </c>
       <c r="H74" s="9">
-        <v>41448466</v>
+        <v>69611718</v>
       </c>
       <c r="I74" s="9">
-        <v>69611718</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>115600482</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>16</v>
       </c>
@@ -2183,22 +2186,22 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>4052136</v>
+        <v>7223409</v>
       </c>
       <c r="F75" s="11">
-        <v>7223409</v>
+        <v>8461290</v>
       </c>
       <c r="G75" s="11">
-        <v>8461290</v>
+        <v>10147417</v>
       </c>
       <c r="H75" s="11">
-        <v>10147417</v>
+        <v>28745789</v>
       </c>
       <c r="I75" s="11">
-        <v>28745789</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35788579</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>17</v>
       </c>
@@ -2207,22 +2210,22 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>102778</v>
+        <v>248255</v>
       </c>
       <c r="F76" s="9">
-        <v>248255</v>
+        <v>328929</v>
       </c>
       <c r="G76" s="9">
-        <v>328929</v>
+        <v>953560</v>
       </c>
       <c r="H76" s="9">
-        <v>953560</v>
+        <v>2593781</v>
       </c>
       <c r="I76" s="9">
-        <v>2593781</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2598184</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>20</v>
       </c>
@@ -2231,22 +2234,22 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>82830600</v>
+        <v>172278006</v>
       </c>
       <c r="F77" s="11">
-        <v>172278006</v>
+        <v>295129172</v>
       </c>
       <c r="G77" s="11">
-        <v>295129172</v>
+        <v>337218355</v>
       </c>
       <c r="H77" s="11">
-        <v>337218355</v>
+        <v>750358226</v>
       </c>
       <c r="I77" s="11">
-        <v>750358226</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1412645356</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>38</v>
       </c>
@@ -2254,8 +2257,8 @@
         <v>41</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>19</v>
+      <c r="E78" s="9">
+        <v>0</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -2263,14 +2266,14 @@
       <c r="G78" s="9">
         <v>0</v>
       </c>
-      <c r="H78" s="9">
-        <v>0</v>
+      <c r="H78" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>21</v>
       </c>
@@ -2279,22 +2282,22 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>502850</v>
+        <v>1400308</v>
       </c>
       <c r="F79" s="11">
-        <v>1400308</v>
+        <v>1601261</v>
       </c>
       <c r="G79" s="11">
-        <v>1601261</v>
+        <v>2842303</v>
       </c>
       <c r="H79" s="11">
-        <v>2842303</v>
+        <v>5133857</v>
       </c>
       <c r="I79" s="11">
-        <v>5133857</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6079154</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>22</v>
       </c>
@@ -2303,22 +2306,22 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H80" s="9">
+        <v>0</v>
       </c>
       <c r="I80" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16528888</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>23</v>
       </c>
@@ -2327,22 +2330,22 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>24</v>
       </c>
@@ -2351,22 +2354,22 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
-        <v>2658</v>
+        <v>2163</v>
       </c>
       <c r="F82" s="9">
-        <v>2163</v>
+        <v>4858</v>
       </c>
       <c r="G82" s="9">
-        <v>4858</v>
+        <v>11784</v>
       </c>
       <c r="H82" s="9">
-        <v>11784</v>
+        <v>19131</v>
       </c>
       <c r="I82" s="9">
-        <v>19131</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16857</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>25</v>
       </c>
@@ -2375,22 +2378,22 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>26</v>
       </c>
@@ -2399,22 +2402,22 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
@@ -2423,22 +2426,22 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>274433</v>
+        <v>1658093</v>
       </c>
       <c r="F85" s="11">
-        <v>1658093</v>
+        <v>1163592</v>
       </c>
       <c r="G85" s="11">
-        <v>1163592</v>
+        <v>5573167</v>
       </c>
       <c r="H85" s="11">
-        <v>5573167</v>
+        <v>5195279</v>
       </c>
       <c r="I85" s="11">
-        <v>5195279</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1796973</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>28</v>
       </c>
@@ -2447,22 +2450,22 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>262850</v>
+        <v>726924</v>
       </c>
       <c r="F86" s="9">
-        <v>726924</v>
+        <v>1538255</v>
       </c>
       <c r="G86" s="9">
-        <v>1538255</v>
+        <v>1136935</v>
       </c>
       <c r="H86" s="9">
-        <v>1136935</v>
+        <v>1798939</v>
       </c>
       <c r="I86" s="9">
-        <v>1798939</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>891241</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>29</v>
       </c>
@@ -2471,22 +2474,22 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>4018235</v>
+        <v>1556587</v>
       </c>
       <c r="F87" s="11">
-        <v>1556587</v>
+        <v>2989764</v>
       </c>
       <c r="G87" s="11">
-        <v>2989764</v>
+        <v>6180232</v>
       </c>
       <c r="H87" s="11">
-        <v>6180232</v>
-      </c>
-      <c r="I87" s="11">
         <v>7270439</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>30</v>
       </c>
@@ -2495,22 +2498,22 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <v>2054274</v>
+        <v>7516740</v>
       </c>
       <c r="F88" s="9">
-        <v>7516740</v>
+        <v>7560265</v>
       </c>
       <c r="G88" s="9">
-        <v>7560265</v>
+        <v>13305746</v>
       </c>
       <c r="H88" s="9">
-        <v>13305746</v>
+        <v>45375529</v>
       </c>
       <c r="I88" s="9">
-        <v>45375529</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61695803</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>31</v>
       </c>
@@ -2518,8 +2521,8 @@
         <v>41</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>19</v>
+      <c r="E89" s="11">
+        <v>0</v>
       </c>
       <c r="F89" s="11">
         <v>0</v>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>32</v>
       </c>
@@ -2543,22 +2546,22 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H90" s="9">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>33</v>
       </c>
@@ -2567,22 +2570,22 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>35</v>
       </c>
@@ -2591,44 +2594,44 @@
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>222311389</v>
+        <v>453226514</v>
       </c>
       <c r="F93" s="15">
-        <v>453226514</v>
+        <v>720189020</v>
       </c>
       <c r="G93" s="15">
-        <v>720189020</v>
+        <v>894983110</v>
       </c>
       <c r="H93" s="15">
-        <v>894983110</v>
+        <v>1976310636</v>
       </c>
       <c r="I93" s="15">
-        <v>1976310636</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3155460200</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2638,7 +2641,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2648,7 +2651,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2658,7 +2661,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>42</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2690,7 +2693,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>10</v>
       </c>
@@ -2699,22 +2702,22 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>13674214</v>
+        <v>25803216</v>
       </c>
       <c r="F99" s="9">
-        <v>25803216</v>
+        <v>44402703</v>
       </c>
       <c r="G99" s="9">
-        <v>44402703</v>
+        <v>54551101</v>
       </c>
       <c r="H99" s="9">
-        <v>54551101</v>
+        <v>119033018</v>
       </c>
       <c r="I99" s="9">
-        <v>119033018</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>167340519</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>12</v>
       </c>
@@ -2723,22 +2726,22 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>14849627</v>
+        <v>32085244</v>
       </c>
       <c r="F100" s="11">
-        <v>32085244</v>
+        <v>50553081</v>
       </c>
       <c r="G100" s="11">
-        <v>50553081</v>
+        <v>58319985</v>
       </c>
       <c r="H100" s="11">
-        <v>58319985</v>
+        <v>117342328</v>
       </c>
       <c r="I100" s="11">
-        <v>117342328</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>209264984</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>13</v>
       </c>
@@ -2747,22 +2750,22 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>8930619</v>
+        <v>20517179</v>
       </c>
       <c r="F101" s="9">
-        <v>20517179</v>
+        <v>27834339</v>
       </c>
       <c r="G101" s="9">
-        <v>27834339</v>
+        <v>39977232</v>
       </c>
       <c r="H101" s="9">
-        <v>39977232</v>
+        <v>80209181</v>
       </c>
       <c r="I101" s="9">
-        <v>80209181</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103676089</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>14</v>
       </c>
@@ -2771,22 +2774,22 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>10454744</v>
+        <v>23195577</v>
       </c>
       <c r="F102" s="11">
-        <v>23195577</v>
+        <v>32646986</v>
       </c>
       <c r="G102" s="11">
-        <v>32646986</v>
+        <v>50979848</v>
       </c>
       <c r="H102" s="11">
-        <v>50979848</v>
+        <v>92396663</v>
       </c>
       <c r="I102" s="11">
-        <v>92396663</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99916703</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>15</v>
       </c>
@@ -2795,22 +2798,22 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>15641535</v>
+        <v>36355673</v>
       </c>
       <c r="F103" s="9">
-        <v>36355673</v>
+        <v>49572777</v>
       </c>
       <c r="G103" s="9">
-        <v>49572777</v>
+        <v>53202288</v>
       </c>
       <c r="H103" s="9">
-        <v>53202288</v>
+        <v>126707290</v>
       </c>
       <c r="I103" s="9">
-        <v>126707290</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>194233967</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>16</v>
       </c>
@@ -2819,22 +2822,22 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>9108564</v>
+        <v>16956359</v>
       </c>
       <c r="F104" s="11">
-        <v>16956359</v>
+        <v>26324715</v>
       </c>
       <c r="G104" s="11">
-        <v>26324715</v>
+        <v>34804111</v>
       </c>
       <c r="H104" s="11">
-        <v>34804111</v>
+        <v>90021323</v>
       </c>
       <c r="I104" s="11">
-        <v>90021323</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99740756</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>17</v>
       </c>
@@ -2843,22 +2846,22 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>5917665</v>
+        <v>11505005</v>
       </c>
       <c r="F105" s="9">
-        <v>11505005</v>
+        <v>8666061</v>
       </c>
       <c r="G105" s="9">
-        <v>8666061</v>
+        <v>25029135</v>
       </c>
       <c r="H105" s="9">
-        <v>25029135</v>
+        <v>77435545</v>
       </c>
       <c r="I105" s="9">
-        <v>77435545</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79443021</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>20</v>
       </c>
@@ -2867,22 +2870,22 @@
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>14169894</v>
+        <v>29999923</v>
       </c>
       <c r="F106" s="11">
-        <v>29999923</v>
+        <v>49606769</v>
       </c>
       <c r="G106" s="11">
-        <v>49606769</v>
+        <v>61172088</v>
       </c>
       <c r="H106" s="11">
-        <v>61172088</v>
+        <v>121108753</v>
       </c>
       <c r="I106" s="11">
-        <v>121108753</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>207812834</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>38</v>
       </c>
@@ -2890,8 +2893,8 @@
         <v>45</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>19</v>
+      <c r="E107" s="9">
+        <v>0</v>
       </c>
       <c r="F107" s="9">
         <v>0</v>
@@ -2899,14 +2902,14 @@
       <c r="G107" s="9">
         <v>0</v>
       </c>
-      <c r="H107" s="9">
-        <v>0</v>
+      <c r="H107" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>21</v>
       </c>
@@ -2915,22 +2918,22 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>13159823</v>
+        <v>31382264</v>
       </c>
       <c r="F108" s="11">
-        <v>31382264</v>
+        <v>40924707</v>
       </c>
       <c r="G108" s="11">
-        <v>40924707</v>
+        <v>59483561</v>
       </c>
       <c r="H108" s="11">
-        <v>59483561</v>
+        <v>116599069</v>
       </c>
       <c r="I108" s="11">
-        <v>116599069</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161507811</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>22</v>
       </c>
@@ -2939,22 +2942,22 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H109" s="9">
+        <v>0</v>
       </c>
       <c r="I109" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>137108890</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>23</v>
       </c>
@@ -2963,22 +2966,22 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>24</v>
       </c>
@@ -2987,22 +2990,22 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>8103659</v>
+        <v>14917241</v>
       </c>
       <c r="F111" s="9">
-        <v>14917241</v>
+        <v>21981900</v>
       </c>
       <c r="G111" s="9">
-        <v>21981900</v>
+        <v>46948207</v>
       </c>
       <c r="H111" s="9">
-        <v>46948207</v>
+        <v>87356164</v>
       </c>
       <c r="I111" s="9">
-        <v>87356164</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>90144385</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>25</v>
       </c>
@@ -3011,22 +3014,22 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>26</v>
       </c>
@@ -3035,22 +3038,22 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I113" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H113" s="9">
+        <v>0</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -3059,22 +3062,22 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>13872163</v>
+        <v>33159207</v>
       </c>
       <c r="F114" s="11">
-        <v>33159207</v>
+        <v>52204765</v>
       </c>
       <c r="G114" s="11">
-        <v>52204765</v>
+        <v>56086699</v>
       </c>
       <c r="H114" s="11">
-        <v>56086699</v>
+        <v>107262909</v>
       </c>
       <c r="I114" s="11">
-        <v>107262909</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>184229342</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>28</v>
       </c>
@@ -3083,22 +3086,22 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>10156099</v>
+        <v>19973732</v>
       </c>
       <c r="F115" s="9">
-        <v>19973732</v>
+        <v>29704071</v>
       </c>
       <c r="G115" s="9">
-        <v>29704071</v>
+        <v>30227182</v>
       </c>
       <c r="H115" s="9">
-        <v>30227182</v>
+        <v>80435457</v>
       </c>
       <c r="I115" s="9">
-        <v>80435457</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>102665707</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>29</v>
       </c>
@@ -3107,22 +3110,22 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>12944928</v>
+        <v>20307194</v>
       </c>
       <c r="F116" s="11">
-        <v>20307194</v>
+        <v>35466186</v>
       </c>
       <c r="G116" s="11">
-        <v>35466186</v>
+        <v>32141668</v>
       </c>
       <c r="H116" s="11">
-        <v>32141668</v>
-      </c>
-      <c r="I116" s="11">
         <v>102861252</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>30</v>
       </c>
@@ -3131,31 +3134,31 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>11119150</v>
+        <v>25467352</v>
       </c>
       <c r="F117" s="9">
-        <v>25467352</v>
+        <v>35249606</v>
       </c>
       <c r="G117" s="9">
-        <v>35249606</v>
+        <v>46344529</v>
       </c>
       <c r="H117" s="9">
-        <v>46344529</v>
+        <v>94388213</v>
       </c>
       <c r="I117" s="9">
-        <v>94388213</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128721715</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>19</v>
+      <c r="E118" s="11">
+        <v>0</v>
       </c>
       <c r="F118" s="11">
         <v>0</v>
@@ -3170,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>32</v>
       </c>
@@ -3179,22 +3182,22 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>33</v>
       </c>
@@ -3203,22 +3206,22 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>35</v>
       </c>
@@ -3227,22 +3230,22 @@
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I121" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H121" s="9">
+        <v>0</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3252,7 +3255,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3262,7 +3265,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3272,9 +3275,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3294,7 +3297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3304,7 +3307,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>10</v>
       </c>
@@ -3312,23 +3315,23 @@
         <v>41</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>19</v>
+      <c r="E127" s="9">
+        <v>-98716974</v>
       </c>
       <c r="F127" s="9">
-        <v>-98716974</v>
+        <v>-151466769</v>
       </c>
       <c r="G127" s="9">
-        <v>-151466769</v>
+        <v>-215575964</v>
       </c>
       <c r="H127" s="9">
-        <v>-215575964</v>
+        <v>-450338476</v>
       </c>
       <c r="I127" s="9">
-        <v>-450338476</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-687304256</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>12</v>
       </c>
@@ -3336,23 +3339,23 @@
         <v>41</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>19</v>
+      <c r="E128" s="11">
+        <v>-4988848</v>
       </c>
       <c r="F128" s="11">
-        <v>-4988848</v>
+        <v>-8397994</v>
       </c>
       <c r="G128" s="11">
-        <v>-8397994</v>
+        <v>-8493170</v>
       </c>
       <c r="H128" s="11">
-        <v>-8493170</v>
+        <v>-22490696</v>
       </c>
       <c r="I128" s="11">
-        <v>-22490696</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-38730443</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>13</v>
       </c>
@@ -3360,23 +3363,23 @@
         <v>41</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>19</v>
+      <c r="E129" s="9">
+        <v>-33884216</v>
       </c>
       <c r="F129" s="9">
-        <v>-33884216</v>
+        <v>-44966022</v>
       </c>
       <c r="G129" s="9">
-        <v>-44966022</v>
+        <v>-64548484</v>
       </c>
       <c r="H129" s="9">
-        <v>-64548484</v>
+        <v>-111288970</v>
       </c>
       <c r="I129" s="9">
-        <v>-111288970</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-165904333</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>14</v>
       </c>
@@ -3384,23 +3387,23 @@
         <v>41</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>19</v>
+      <c r="E130" s="11">
+        <v>-77051361</v>
       </c>
       <c r="F130" s="11">
-        <v>-77051361</v>
+        <v>-132241908</v>
       </c>
       <c r="G130" s="11">
-        <v>-132241908</v>
+        <v>-124290701</v>
       </c>
       <c r="H130" s="11">
-        <v>-124290701</v>
+        <v>-349103453</v>
       </c>
       <c r="I130" s="11">
-        <v>-349103453</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-445717105</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>15</v>
       </c>
@@ -3408,23 +3411,23 @@
         <v>41</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
-        <v>19</v>
+      <c r="E131" s="9">
+        <v>-16875947</v>
       </c>
       <c r="F131" s="9">
-        <v>-16875947</v>
+        <v>-33150600</v>
       </c>
       <c r="G131" s="9">
-        <v>-33150600</v>
+        <v>-36375874</v>
       </c>
       <c r="H131" s="9">
-        <v>-36375874</v>
+        <v>-46724459</v>
       </c>
       <c r="I131" s="9">
-        <v>-46724459</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-91729092</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>16</v>
       </c>
@@ -3432,23 +3435,23 @@
         <v>41</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
-        <v>19</v>
+      <c r="E132" s="11">
+        <v>-6622770</v>
       </c>
       <c r="F132" s="11">
-        <v>-6622770</v>
+        <v>-8032131</v>
       </c>
       <c r="G132" s="11">
-        <v>-8032131</v>
+        <v>-8975467</v>
       </c>
       <c r="H132" s="11">
-        <v>-8975467</v>
+        <v>-24707767</v>
       </c>
       <c r="I132" s="11">
-        <v>-24707767</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-31307331</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>17</v>
       </c>
@@ -3456,23 +3459,23 @@
         <v>41</v>
       </c>
       <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>19</v>
+      <c r="E133" s="9">
+        <v>-229315</v>
       </c>
       <c r="F133" s="9">
-        <v>-229315</v>
+        <v>-316306</v>
       </c>
       <c r="G133" s="9">
-        <v>-316306</v>
+        <v>-787588</v>
       </c>
       <c r="H133" s="9">
-        <v>-787588</v>
+        <v>-2018562</v>
       </c>
       <c r="I133" s="9">
-        <v>-2018562</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2625786</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>20</v>
       </c>
@@ -3480,23 +3483,23 @@
         <v>41</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>19</v>
+      <c r="E134" s="11">
+        <v>-158309126</v>
       </c>
       <c r="F134" s="11">
-        <v>-158309126</v>
+        <v>-268879372</v>
       </c>
       <c r="G134" s="11">
-        <v>-268879372</v>
+        <v>-295197877</v>
       </c>
       <c r="H134" s="11">
-        <v>-295197877</v>
+        <v>-655914214</v>
       </c>
       <c r="I134" s="11">
-        <v>-655914214</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1222719953</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>38</v>
       </c>
@@ -3504,8 +3507,8 @@
         <v>41</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>19</v>
+      <c r="E135" s="9">
+        <v>0</v>
       </c>
       <c r="F135" s="9">
         <v>0</v>
@@ -3513,14 +3516,14 @@
       <c r="G135" s="9">
         <v>0</v>
       </c>
-      <c r="H135" s="9">
-        <v>0</v>
+      <c r="H135" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>21</v>
       </c>
@@ -3528,23 +3531,23 @@
         <v>41</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>19</v>
+      <c r="E136" s="11">
+        <v>-1344411</v>
       </c>
       <c r="F136" s="11">
-        <v>-1344411</v>
+        <v>-1528025</v>
       </c>
       <c r="G136" s="11">
-        <v>-1528025</v>
+        <v>-2529610</v>
       </c>
       <c r="H136" s="11">
-        <v>-2529610</v>
+        <v>-4542578</v>
       </c>
       <c r="I136" s="11">
-        <v>-4542578</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5351191</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>22</v>
       </c>
@@ -3553,22 +3556,22 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H137" s="9">
+        <v>0</v>
       </c>
       <c r="I137" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14542906</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>24</v>
       </c>
@@ -3576,23 +3579,23 @@
         <v>41</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>19</v>
+      <c r="E138" s="11">
+        <v>-2001</v>
       </c>
       <c r="F138" s="11">
-        <v>-2001</v>
+        <v>-4618</v>
       </c>
       <c r="G138" s="11">
-        <v>-4618</v>
+        <v>-8851</v>
       </c>
       <c r="H138" s="11">
-        <v>-8851</v>
+        <v>-14677</v>
       </c>
       <c r="I138" s="11">
-        <v>-14677</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14788</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>25</v>
       </c>
@@ -3601,22 +3604,22 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I139" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H139" s="9">
+        <v>0</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>26</v>
       </c>
@@ -3625,22 +3628,22 @@
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I140" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H140" s="11">
+        <v>0</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>27</v>
       </c>
@@ -3648,23 +3651,23 @@
         <v>41</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
-        <v>19</v>
+      <c r="E141" s="9">
+        <v>-1315575</v>
       </c>
       <c r="F141" s="9">
-        <v>-1315575</v>
+        <v>-1100375</v>
       </c>
       <c r="G141" s="9">
-        <v>-1100375</v>
+        <v>-4960375</v>
       </c>
       <c r="H141" s="9">
-        <v>-4960375</v>
+        <v>-4614881</v>
       </c>
       <c r="I141" s="9">
-        <v>-4614881</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1582007</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>28</v>
       </c>
@@ -3672,23 +3675,23 @@
         <v>41</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>19</v>
+      <c r="E142" s="11">
+        <v>-694574</v>
       </c>
       <c r="F142" s="11">
-        <v>-694574</v>
+        <v>-1456245</v>
       </c>
       <c r="G142" s="11">
-        <v>-1456245</v>
+        <v>-997440</v>
       </c>
       <c r="H142" s="11">
-        <v>-997440</v>
+        <v>-1600611</v>
       </c>
       <c r="I142" s="11">
-        <v>-1600611</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-691985</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>29</v>
       </c>
@@ -3696,23 +3699,23 @@
         <v>41</v>
       </c>
       <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>19</v>
+      <c r="E143" s="9">
+        <v>-1490836</v>
       </c>
       <c r="F143" s="9">
-        <v>-1490836</v>
+        <v>-2825724</v>
       </c>
       <c r="G143" s="9">
-        <v>-2825724</v>
+        <v>-5585061</v>
       </c>
       <c r="H143" s="9">
-        <v>-5585061</v>
-      </c>
-      <c r="I143" s="9">
         <v>-6453193</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>30</v>
       </c>
@@ -3720,23 +3723,23 @@
         <v>41</v>
       </c>
       <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>19</v>
+      <c r="E144" s="11">
+        <v>-7247216</v>
       </c>
       <c r="F144" s="11">
-        <v>-7247216</v>
+        <v>-7188017</v>
       </c>
       <c r="G144" s="11">
-        <v>-7188017</v>
+        <v>-11842110</v>
       </c>
       <c r="H144" s="11">
-        <v>-11842110</v>
+        <v>-40173548</v>
       </c>
       <c r="I144" s="11">
-        <v>-40173548</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-54323475</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>31</v>
       </c>
@@ -3744,8 +3747,8 @@
         <v>41</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>19</v>
+      <c r="E145" s="9">
+        <v>0</v>
       </c>
       <c r="F145" s="9">
         <v>0</v>
@@ -3760,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -3769,22 +3772,22 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I146" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H146" s="11">
+        <v>0</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>33</v>
       </c>
@@ -3793,22 +3796,22 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H147" s="9">
+        <v>0</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>35</v>
       </c>
@@ -3817,44 +3820,44 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H148" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I148" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H148" s="11">
+        <v>0</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13">
-        <v>0</v>
+        <v>-408773170</v>
       </c>
       <c r="F149" s="13">
-        <v>-408773170</v>
+        <v>-661554106</v>
       </c>
       <c r="G149" s="13">
-        <v>-661554106</v>
+        <v>-780168572</v>
       </c>
       <c r="H149" s="13">
-        <v>-780168572</v>
+        <v>-1719986085</v>
       </c>
       <c r="I149" s="13">
-        <v>-1719986085</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2762544651</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3864,7 +3867,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3874,7 +3877,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3884,9 +3887,9 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3906,7 +3909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3916,7 +3919,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>10</v>
       </c>
@@ -3924,23 +3927,23 @@
         <v>41</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="9" t="s">
-        <v>19</v>
+      <c r="E155" s="9">
+        <v>7487126</v>
       </c>
       <c r="F155" s="9">
-        <v>7487126</v>
+        <v>12656589</v>
       </c>
       <c r="G155" s="9">
-        <v>12656589</v>
+        <v>26249505</v>
       </c>
       <c r="H155" s="9">
-        <v>26249505</v>
+        <v>52883370</v>
       </c>
       <c r="I155" s="9">
-        <v>52883370</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117170731</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>12</v>
       </c>
@@ -3948,23 +3951,23 @@
         <v>41</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11" t="s">
-        <v>19</v>
+      <c r="E156" s="11">
+        <v>1305571</v>
       </c>
       <c r="F156" s="11">
-        <v>1305571</v>
+        <v>1305771</v>
       </c>
       <c r="G156" s="11">
-        <v>1305771</v>
+        <v>1474182</v>
       </c>
       <c r="H156" s="11">
-        <v>1474182</v>
+        <v>3383874</v>
       </c>
       <c r="I156" s="11">
-        <v>3383874</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9654551</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>13</v>
       </c>
@@ -3972,23 +3975,23 @@
         <v>41</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9" t="s">
-        <v>19</v>
+      <c r="E157" s="9">
+        <v>3663103</v>
       </c>
       <c r="F157" s="9">
-        <v>3663103</v>
+        <v>2202967</v>
       </c>
       <c r="G157" s="9">
-        <v>2202967</v>
+        <v>7814983</v>
       </c>
       <c r="H157" s="9">
-        <v>7814983</v>
+        <v>15617836</v>
       </c>
       <c r="I157" s="9">
-        <v>15617836</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22640898</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>14</v>
       </c>
@@ -3996,23 +3999,23 @@
         <v>41</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11" t="s">
-        <v>19</v>
+      <c r="E158" s="11">
+        <v>7843036</v>
       </c>
       <c r="F158" s="11">
-        <v>7843036</v>
+        <v>7385629</v>
       </c>
       <c r="G158" s="11">
-        <v>7385629</v>
+        <v>27718156</v>
       </c>
       <c r="H158" s="11">
-        <v>27718156</v>
+        <v>55101273</v>
       </c>
       <c r="I158" s="11">
-        <v>55101273</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14696366</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>15</v>
       </c>
@@ -4020,23 +4023,23 @@
         <v>41</v>
       </c>
       <c r="D159" s="9"/>
-      <c r="E159" s="9" t="s">
-        <v>19</v>
+      <c r="E159" s="9">
+        <v>8799847</v>
       </c>
       <c r="F159" s="9">
-        <v>8799847</v>
+        <v>7637385</v>
       </c>
       <c r="G159" s="9">
-        <v>7637385</v>
+        <v>5072592</v>
       </c>
       <c r="H159" s="9">
-        <v>5072592</v>
+        <v>22887259</v>
       </c>
       <c r="I159" s="9">
-        <v>22887259</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23871390</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>16</v>
       </c>
@@ -4044,23 +4047,23 @@
         <v>41</v>
       </c>
       <c r="D160" s="11"/>
-      <c r="E160" s="11" t="s">
-        <v>19</v>
+      <c r="E160" s="11">
+        <v>600639</v>
       </c>
       <c r="F160" s="11">
-        <v>600639</v>
+        <v>429159</v>
       </c>
       <c r="G160" s="11">
-        <v>429159</v>
+        <v>1171950</v>
       </c>
       <c r="H160" s="11">
-        <v>1171950</v>
+        <v>4038022</v>
       </c>
       <c r="I160" s="11">
-        <v>4038022</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4481248</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>17</v>
       </c>
@@ -4068,23 +4071,23 @@
         <v>41</v>
       </c>
       <c r="D161" s="9"/>
-      <c r="E161" s="9" t="s">
-        <v>19</v>
+      <c r="E161" s="9">
+        <v>18940</v>
       </c>
       <c r="F161" s="9">
-        <v>18940</v>
+        <v>12623</v>
       </c>
       <c r="G161" s="9">
-        <v>12623</v>
+        <v>165972</v>
       </c>
       <c r="H161" s="9">
-        <v>165972</v>
+        <v>575219</v>
       </c>
       <c r="I161" s="9">
-        <v>575219</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-27602</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>20</v>
       </c>
@@ -4092,23 +4095,23 @@
         <v>41</v>
       </c>
       <c r="D162" s="11"/>
-      <c r="E162" s="11" t="s">
-        <v>19</v>
+      <c r="E162" s="11">
+        <v>13968880</v>
       </c>
       <c r="F162" s="11">
-        <v>13968880</v>
+        <v>26249800</v>
       </c>
       <c r="G162" s="11">
-        <v>26249800</v>
+        <v>42020478</v>
       </c>
       <c r="H162" s="11">
-        <v>42020478</v>
+        <v>94444012</v>
       </c>
       <c r="I162" s="11">
-        <v>94444012</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189925403</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>38</v>
       </c>
@@ -4117,22 +4120,22 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F163" s="9">
+        <v>0</v>
       </c>
       <c r="G163" s="9">
         <v>0</v>
       </c>
-      <c r="H163" s="9">
-        <v>0</v>
+      <c r="H163" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>21</v>
       </c>
@@ -4140,23 +4143,23 @@
         <v>41</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="11" t="s">
-        <v>19</v>
+      <c r="E164" s="11">
+        <v>55897</v>
       </c>
       <c r="F164" s="11">
-        <v>55897</v>
+        <v>73236</v>
       </c>
       <c r="G164" s="11">
-        <v>73236</v>
+        <v>312693</v>
       </c>
       <c r="H164" s="11">
-        <v>312693</v>
+        <v>591279</v>
       </c>
       <c r="I164" s="11">
-        <v>591279</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+        <v>727963</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>22</v>
       </c>
@@ -4165,22 +4168,22 @@
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H165" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H165" s="9">
+        <v>0</v>
       </c>
       <c r="I165" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1985982</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>24</v>
       </c>
@@ -4188,23 +4191,23 @@
         <v>41</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="11" t="s">
-        <v>19</v>
+      <c r="E166" s="11">
+        <v>162</v>
       </c>
       <c r="F166" s="11">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="G166" s="11">
-        <v>240</v>
+        <v>2933</v>
       </c>
       <c r="H166" s="11">
-        <v>2933</v>
+        <v>4454</v>
       </c>
       <c r="I166" s="11">
-        <v>4454</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>25</v>
       </c>
@@ -4213,22 +4216,22 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I167" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H167" s="9">
+        <v>0</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>26</v>
       </c>
@@ -4237,22 +4240,22 @@
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I168" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H168" s="11">
+        <v>0</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>27</v>
       </c>
@@ -4260,23 +4263,23 @@
         <v>41</v>
       </c>
       <c r="D169" s="9"/>
-      <c r="E169" s="9" t="s">
-        <v>19</v>
+      <c r="E169" s="9">
+        <v>342518</v>
       </c>
       <c r="F169" s="9">
-        <v>342518</v>
+        <v>63217</v>
       </c>
       <c r="G169" s="9">
-        <v>63217</v>
+        <v>612792</v>
       </c>
       <c r="H169" s="9">
-        <v>612792</v>
+        <v>580398</v>
       </c>
       <c r="I169" s="9">
-        <v>580398</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214966</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>28</v>
       </c>
@@ -4284,23 +4287,23 @@
         <v>41</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11" t="s">
-        <v>19</v>
+      <c r="E170" s="11">
+        <v>32350</v>
       </c>
       <c r="F170" s="11">
-        <v>32350</v>
+        <v>82010</v>
       </c>
       <c r="G170" s="11">
-        <v>82010</v>
+        <v>139495</v>
       </c>
       <c r="H170" s="11">
-        <v>139495</v>
+        <v>198328</v>
       </c>
       <c r="I170" s="11">
-        <v>198328</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>199256</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>29</v>
       </c>
@@ -4308,23 +4311,23 @@
         <v>41</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>19</v>
+      <c r="E171" s="9">
+        <v>65751</v>
       </c>
       <c r="F171" s="9">
-        <v>65751</v>
+        <v>164040</v>
       </c>
       <c r="G171" s="9">
-        <v>164040</v>
+        <v>595171</v>
       </c>
       <c r="H171" s="9">
-        <v>595171</v>
-      </c>
-      <c r="I171" s="9">
         <v>817246</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I171" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>30</v>
       </c>
@@ -4332,23 +4335,23 @@
         <v>41</v>
       </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="11" t="s">
-        <v>19</v>
+      <c r="E172" s="11">
+        <v>269524</v>
       </c>
       <c r="F172" s="11">
-        <v>269524</v>
+        <v>372248</v>
       </c>
       <c r="G172" s="11">
-        <v>372248</v>
+        <v>1463636</v>
       </c>
       <c r="H172" s="11">
-        <v>1463636</v>
+        <v>5201981</v>
       </c>
       <c r="I172" s="11">
-        <v>5201981</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7372328</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>31</v>
       </c>
@@ -4357,10 +4360,10 @@
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F173" s="9">
+        <v>0</v>
       </c>
       <c r="G173" s="9">
         <v>0</v>
@@ -4372,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>32</v>
       </c>
@@ -4381,22 +4384,22 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I174" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H174" s="11">
+        <v>0</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>33</v>
       </c>
@@ -4405,22 +4408,22 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H175" s="9">
+        <v>0</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>35</v>
       </c>
@@ -4429,41 +4432,41 @@
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H176" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I176" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H176" s="11">
+        <v>0</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13">
-        <v>0</v>
+        <v>44453344</v>
       </c>
       <c r="F177" s="13">
-        <v>44453344</v>
+        <v>58634914</v>
       </c>
       <c r="G177" s="13">
-        <v>58634914</v>
+        <v>114814538</v>
       </c>
       <c r="H177" s="13">
-        <v>114814538</v>
+        <v>256324551</v>
       </c>
       <c r="I177" s="13">
-        <v>256324551</v>
+        <v>392915549</v>
       </c>
     </row>
   </sheetData>
